--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_8_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_8_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7914.071283196991</v>
+        <v>1574900.185356201</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7914.071283196991</v>
+        <v>1574900.185356201</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22649.00525470507</v>
+        <v>1368294.454869905</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22649.00525470507</v>
+        <v>1368294.454869905</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188936982.605556</v>
+        <v>47685320.54330888</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10941.50695197155</v>
+        <v>1102916.843124288</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21142.91134075991</v>
+        <v>2078934.049382048</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31344.31572954824</v>
+        <v>3054951.25563981</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42627.95044976776</v>
+        <v>3972328.008995291</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53911.58516998727</v>
+        <v>4889704.762350772</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64433.85049775732</v>
+        <v>5843840.066960657</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75176.65244464031</v>
+        <v>6806977.789458433</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85874.21611067964</v>
+        <v>7761113.094068316</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97112.61255005551</v>
+        <v>8669487.429535897</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>108300.7751756257</v>
+        <v>9590865.126591375</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118616.7962144578</v>
+        <v>10566882.33284913</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>128932.8172532898</v>
+        <v>11542899.5391069</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>139248.8382921219</v>
+        <v>12518916.74536467</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>150532.4730123414</v>
+        <v>13436293.49872016</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161745.711762778</v>
+        <v>14334025.86743739</v>
       </c>
     </row>
   </sheetData>
